--- a/SubnetPlanning.xlsx
+++ b/SubnetPlanning.xlsx
@@ -12,12 +12,12 @@
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="WUH Subnets" sheetId="4" r:id="rId1"/>
+    <sheet name="Subnet Planner" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'WUH Subnets'!$A$1:$I$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Subnet Planner'!$A$1:$I$97</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="64">
   <si>
     <t>Voice</t>
   </si>
@@ -95,6 +95,135 @@
   <si>
     <t>Core VSS to SECCAM VSS
  P-t-P  L3 PortChannel</t>
+  </si>
+  <si>
+    <t>Switch1</t>
+  </si>
+  <si>
+    <t>Switch2</t>
+  </si>
+  <si>
+    <t>Switch3</t>
+  </si>
+  <si>
+    <t>Switch4</t>
+  </si>
+  <si>
+    <t>Switch5</t>
+  </si>
+  <si>
+    <t>Switch6</t>
+  </si>
+  <si>
+    <t>Switch7</t>
+  </si>
+  <si>
+    <t>Switch8</t>
+  </si>
+  <si>
+    <t>Switch9</t>
+  </si>
+  <si>
+    <t>Switch10</t>
+  </si>
+  <si>
+    <t>Switch11</t>
+  </si>
+  <si>
+    <t>Switch12</t>
+  </si>
+  <si>
+    <t>Switch13</t>
+  </si>
+  <si>
+    <t>Switch14</t>
+  </si>
+  <si>
+    <t>Switch15</t>
+  </si>
+  <si>
+    <t>Switch16</t>
+  </si>
+  <si>
+    <t>Switch17</t>
+  </si>
+  <si>
+    <t>Switch18</t>
+  </si>
+  <si>
+    <t>Switch19</t>
+  </si>
+  <si>
+    <t>Switch20</t>
+  </si>
+  <si>
+    <t>Switch21</t>
+  </si>
+  <si>
+    <t>Switch22</t>
+  </si>
+  <si>
+    <t>Switch23</t>
+  </si>
+  <si>
+    <t>Switch24</t>
+  </si>
+  <si>
+    <t>Switch25</t>
+  </si>
+  <si>
+    <t>Switch26</t>
+  </si>
+  <si>
+    <t>Switch27</t>
+  </si>
+  <si>
+    <t>Switch28</t>
+  </si>
+  <si>
+    <t>Switch29</t>
+  </si>
+  <si>
+    <t>Switch30</t>
+  </si>
+  <si>
+    <t>Switch31</t>
+  </si>
+  <si>
+    <t>Switch32</t>
+  </si>
+  <si>
+    <t>Switch33</t>
+  </si>
+  <si>
+    <t>Switch34</t>
+  </si>
+  <si>
+    <t>Switch35</t>
+  </si>
+  <si>
+    <t>Switch36</t>
+  </si>
+  <si>
+    <t>Switch37</t>
+  </si>
+  <si>
+    <t>Switch38</t>
+  </si>
+  <si>
+    <t>172.16.1.0 /24</t>
+  </si>
+  <si>
+    <t>172.16.2.0 /24</t>
+  </si>
+  <si>
+    <t>172.16.3.0 /24</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
 </sst>
 </file>
@@ -337,19 +466,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -358,13 +478,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -378,9 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -390,12 +501,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -420,18 +525,12 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -444,64 +543,92 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,7 +673,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://www.davidc.net/sites/default/subnets/img/23.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -598,7 +725,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://www.davidc.net/sites/default/subnets/img/22.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -650,7 +777,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://www.davidc.net/sites/default/subnets/img/20.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -702,7 +829,7 @@
         <xdr:cNvPr id="1028" name="Picture 4" descr="http://www.davidc.net/sites/default/subnets/img/19.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1004,22 +1131,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A94" sqref="A94:A98"/>
+      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.875" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="30.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17" style="64" customWidth="1"/>
     <col min="8" max="8" width="26.75" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="75.25" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11" style="5"/>
@@ -1044,7 +1171,7 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="58" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1054,1102 +1181,1577 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="65">
+        <v>300</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
-      <c r="D3" s="47"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="49"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="29"/>
+      <c r="F3" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="66">
+        <v>301</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="29"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
-      <c r="D5" s="47"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="49"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="29"/>
+      <c r="F5" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="66">
+        <v>303</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="29"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="66">
+        <v>304</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
-      <c r="D7" s="47"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="49"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="F7" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="66">
+        <v>305</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="51"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="44"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="66">
+        <v>306</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="29"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="66">
+        <v>307</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="51"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="29"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="66">
+        <v>308</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
-      <c r="D11" s="47"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="49"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="29"/>
+      <c r="F11" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="66">
+        <v>309</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
-      <c r="D12" s="47"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="48"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="29"/>
+      <c r="F12" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="66">
+        <v>310</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="51"/>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
-      <c r="D13" s="47"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="49"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="29"/>
+      <c r="F13" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="66">
+        <v>311</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="29"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="66">
+        <v>312</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="29"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="66">
+        <v>313</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="29"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="66">
+        <v>314</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="29"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="66">
+        <v>315</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
-      <c r="D18" s="47"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="29"/>
+      <c r="F18" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="66">
+        <v>316</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="51"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
-      <c r="D19" s="47"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="48"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="29"/>
+      <c r="F19" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="66">
+        <v>317</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="51"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
-      <c r="D20" s="47"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="49"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="29"/>
+      <c r="F20" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="66">
+        <v>318</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="29"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="66">
+        <v>319</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="51"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="29"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="66">
+        <v>320</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="51"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="29"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="66">
+        <v>321</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="29"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="66">
+        <v>322</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
-      <c r="D25" s="47"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="49"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="29"/>
+      <c r="F25" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="66">
+        <v>323</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="51"/>
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
-      <c r="D26" s="47"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="48"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="29"/>
+      <c r="F26" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="66">
+        <v>324</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
-      <c r="D27" s="47"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="49"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="29"/>
+      <c r="F27" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="66">
+        <v>325</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="51"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="29"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="66">
+        <v>326</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="51"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
-      <c r="D29" s="47"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="49"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="29"/>
+      <c r="F29" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="66">
+        <v>327</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="29"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="66">
+        <v>328</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="51"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48"/>
-      <c r="D31" s="47"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="49"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="29"/>
+      <c r="F31" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="66">
+        <v>329</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
-      <c r="D32" s="47"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="48"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="29"/>
+      <c r="F32" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="66">
+        <v>330</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
-      <c r="D33" s="47"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="48"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="29"/>
+      <c r="F33" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="66">
+        <v>331</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
-      <c r="D34" s="47"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="49"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="29"/>
+      <c r="F34" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="66">
+        <v>332</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="29"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="66">
+        <v>333</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
       <c r="E36" s="49"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="29"/>
+      <c r="F36" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="66">
+        <v>334</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="29"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="66">
+        <v>335</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
       <c r="D38" s="49"/>
       <c r="E38" s="49"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="29"/>
+      <c r="F38" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="66">
+        <v>336</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="52"/>
       <c r="B39" s="49"/>
       <c r="C39" s="49"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="29"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="66">
+        <v>337</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="30"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="66">
+        <v>338</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="30"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="54"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="66">
+        <v>339</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="30"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="54"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="66">
+        <v>340</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="61"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="30"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="54"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="66">
+        <v>341</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="61"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="30"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="54"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="66">
+        <v>342</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="61"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="46"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="61"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="46"/>
-    </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="61"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="30"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="54"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="66">
+        <v>343</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="36"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="54"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="66">
+        <v>344</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="36"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="54"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="66">
+        <v>345</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="30"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="54"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="66">
+        <v>346</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="30"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="54"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="66">
+        <v>347</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="30"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="54"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="66">
+        <v>348</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="30"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="54"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="66">
+        <v>349</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="30"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="54"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="66">
+        <v>350</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="30"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="54"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="66">
+        <v>351</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="30"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="54"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="66">
+        <v>352</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="30"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="54"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="66">
+        <v>353</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="30"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="54"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="66">
+        <v>354</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="30"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="54"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="66">
+        <v>355</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="30"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="54"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="66">
+        <v>356</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="61"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="30"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="54"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="66">
+        <v>357</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="30"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="54"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="66">
+        <v>358</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="30"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="54"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="66">
+        <v>359</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="61"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="30"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="54"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="66">
+        <v>360</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="61"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="30"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="54"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G63" s="66">
+        <v>361</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="30"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="54"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="G64" s="66">
+        <v>362</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="61"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="30"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="54"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65" s="66">
+        <v>363</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="61"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="30"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="54"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="G66" s="66">
+        <v>364</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="30"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G67" s="66">
+        <v>365</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I67" s="9"/>
     </row>
-    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="61"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="30"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="54"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="66">
+        <v>366</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="61"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="30"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="54"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" s="66">
+        <v>367</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="30"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="54"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="G70" s="66">
+        <v>368</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="63"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="30"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="54"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G71" s="66">
+        <v>369</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="61"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="30"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="54"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="66">
+        <v>370</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="61"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="30"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="54"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="G73" s="66">
+        <v>371</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="63"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="30"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="54"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" s="66">
+        <v>372</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I74" s="9"/>
     </row>
-    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="61"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="63"/>
-      <c r="E75" s="52"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="30"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="54"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G75" s="66">
+        <v>373</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="61"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="30"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="54"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G76" s="66">
+        <v>374</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="30"/>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="55"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="66">
+        <v>375</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="16"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="66">
+        <v>376</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I78" s="13"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="15"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="18"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I80" s="14"/>
     </row>
     <row r="81" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="18"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="14"/>
     </row>
     <row r="82" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="18"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="14"/>
     </row>
     <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="18"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="14"/>
     </row>
     <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="18"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="14"/>
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="18"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="14"/>
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="18"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="18"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="14"/>
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="55"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="18"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="14"/>
     </row>
     <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="56"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="18"/>
-    </row>
-    <row r="90" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="27" t="s">
+      <c r="A89" s="46"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="14"/>
+    </row>
+    <row r="90" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B90" s="7"/>
-      <c r="C90" s="28"/>
+      <c r="C90" s="22"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="28"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="22"/>
     </row>
     <row r="91" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="35"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="62"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="27"/>
     </row>
     <row r="92" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="36" t="s">
+      <c r="A92" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="35"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="27"/>
     </row>
     <row r="93" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="36" t="s">
+      <c r="A93" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="35"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="62"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="27"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="34"/>
+      <c r="A94" s="31"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="26"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="34"/>
+      <c r="A95" s="31"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="26"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="34"/>
+      <c r="A96" s="31"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="63"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="26"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="34"/>
+      <c r="A97" s="31"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="63"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="A83:A89"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="A2:A39"/>
@@ -2166,35 +2768,27 @@
     <mergeCell ref="D73:D76"/>
     <mergeCell ref="D28:D34"/>
     <mergeCell ref="D59:D65"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G4" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SubnetPlanning.xlsx
+++ b/SubnetPlanning.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Nextcloud\Root\Python Programs\GitRepo\configuration_generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGit\Github_projects\config gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD8B083-1564-4B75-A1B2-505EA2BA6961}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subnet Planner" sheetId="4" r:id="rId1"/>
@@ -18,18 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Subnet Planner'!$A$1:$I$97</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="64">
   <si>
     <t>Voice</t>
   </si>
@@ -229,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -441,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -543,64 +537,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,6 +569,75 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -673,7 +682,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://www.davidc.net/sites/default/subnets/img/23.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -725,7 +734,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://www.davidc.net/sites/default/subnets/img/22.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -777,7 +786,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://www.davidc.net/sites/default/subnets/img/20.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -829,7 +838,7 @@
         <xdr:cNvPr id="1028" name="Picture 4" descr="http://www.davidc.net/sites/default/subnets/img/19.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1128,14 +1137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F76" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1146,7 +1155,7 @@
     <col min="4" max="4" width="13.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="30.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="64" customWidth="1"/>
+    <col min="7" max="7" width="17" style="46" customWidth="1"/>
     <col min="8" max="8" width="26.75" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="75.25" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11" style="5"/>
@@ -1171,7 +1180,7 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="40" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1182,1297 +1191,1297 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="57" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="47">
         <v>300</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="57" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="48">
         <v>301</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="57" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="57" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="48">
         <v>303</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="57" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="48">
         <v>304</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="57" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="48">
         <v>305</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G8" s="48">
         <v>306</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="48">
         <v>307</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="57" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="48">
         <v>308</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="57" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="48">
         <v>309</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="57" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="48">
         <v>310</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="57" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="48">
         <v>311</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="48">
         <v>312</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="48">
         <v>313</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="48">
         <v>314</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="57" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="48">
         <v>315</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="57" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="48">
         <v>316</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="57" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="48">
         <v>317</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="57" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G20" s="48">
         <v>318</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="66">
+      <c r="G21" s="48">
         <v>319</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="48">
         <v>320</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="48">
         <v>321</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="57" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="66">
+      <c r="G24" s="48">
         <v>322</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="57" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="48">
         <v>323</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="57" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="66">
+      <c r="G26" s="48">
         <v>324</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="57" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="66">
+      <c r="G27" s="48">
         <v>325</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="57" t="s">
+      <c r="A28" s="60"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="66">
+      <c r="G28" s="48">
         <v>326</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="57" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="48">
         <v>327</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="57" t="s">
+      <c r="A30" s="60"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="48">
         <v>328</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="57" t="s">
+      <c r="A31" s="60"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="48">
         <v>329</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="57" t="s">
+      <c r="A32" s="60"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="66">
+      <c r="G32" s="48">
         <v>330</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="57" t="s">
+      <c r="A33" s="60"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="66">
+      <c r="G33" s="48">
         <v>331</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="57" t="s">
+      <c r="A34" s="60"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="66">
+      <c r="G34" s="48">
         <v>332</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="57" t="s">
+      <c r="A35" s="60"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="G35" s="66">
+      <c r="G35" s="48">
         <v>333</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="57" t="s">
+      <c r="A36" s="60"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="66">
+      <c r="G36" s="48">
         <v>334</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="57" t="s">
+      <c r="A37" s="60"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="66">
+      <c r="G37" s="48">
         <v>335</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="57" t="s">
+      <c r="A38" s="60"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="66">
+      <c r="G38" s="48">
         <v>336</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="34"/>
       <c r="E39" s="35"/>
-      <c r="F39" s="57" t="s">
+      <c r="F39" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="66">
+      <c r="G39" s="48">
         <v>337</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="37" t="s">
         <v>59</v>
       </c>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="57" t="s">
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="66">
+      <c r="G40" s="71">
         <v>338</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="57" t="s">
+      <c r="A41" s="63"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="66">
+      <c r="G41" s="71">
         <v>339</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="57" t="s">
+      <c r="A42" s="63"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="66">
+      <c r="G42" s="71">
         <v>340</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="57" t="s">
+      <c r="A43" s="63"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="66">
+      <c r="G43" s="71">
         <v>341</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="57" t="s">
+      <c r="A44" s="63"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="66">
+      <c r="G44" s="71">
         <v>342</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="57" t="s">
+      <c r="A45" s="63"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="66">
+      <c r="G45" s="71">
         <v>343</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I45" s="36"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="57" t="s">
+      <c r="A46" s="63"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="66">
+      <c r="G46" s="71">
         <v>344</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I46" s="36"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="57" t="s">
+      <c r="A47" s="63"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="66">
+      <c r="G47" s="71">
         <v>345</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I47" s="9"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="54"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="57" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="66">
+      <c r="G48" s="71">
         <v>346</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="54"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="57" t="s">
+      <c r="A49" s="63"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="66">
+      <c r="G49" s="71">
         <v>347</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="54"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="57" t="s">
+      <c r="A50" s="63"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="66">
+      <c r="G50" s="71">
         <v>348</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="54"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="57" t="s">
+      <c r="A51" s="63"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="66">
+      <c r="G51" s="71">
         <v>349</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="57" t="s">
+      <c r="A52" s="63"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G52" s="66">
+      <c r="G52" s="71">
         <v>350</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="57" t="s">
+      <c r="A53" s="63"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="66">
+      <c r="G53" s="71">
         <v>351</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="57" t="s">
+      <c r="A54" s="63"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G54" s="66">
+      <c r="G54" s="71">
         <v>352</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="57" t="s">
+      <c r="A55" s="63"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="G55" s="66">
+      <c r="G55" s="71">
         <v>353</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="57" t="s">
+      <c r="A56" s="63"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="G56" s="66">
+      <c r="G56" s="71">
         <v>354</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="57" t="s">
+      <c r="A57" s="63"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="G57" s="66">
+      <c r="G57" s="71">
         <v>355</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="57" t="s">
+      <c r="A58" s="63"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G58" s="66">
+      <c r="G58" s="71">
         <v>356</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I58" s="9"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="57" t="s">
+      <c r="A59" s="63"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="G59" s="66">
+      <c r="G59" s="71">
         <v>357</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="57" t="s">
+      <c r="A60" s="63"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="G60" s="66">
+      <c r="G60" s="71">
         <v>358</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="57" t="s">
+      <c r="A61" s="63"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="66">
+      <c r="G61" s="71">
         <v>359</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="54"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="57" t="s">
+      <c r="A62" s="63"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="G62" s="66">
+      <c r="G62" s="71">
         <v>360</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="57" t="s">
+      <c r="A63" s="63"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="66">
+      <c r="G63" s="71">
         <v>361</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="54"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="57" t="s">
+      <c r="A64" s="63"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="G64" s="66">
+      <c r="G64" s="71">
         <v>362</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I64" s="9"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="57" t="s">
+      <c r="A65" s="63"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="G65" s="66">
+      <c r="G65" s="71">
         <v>363</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="57" t="s">
+      <c r="A66" s="63"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="66">
+      <c r="G66" s="71">
         <v>364</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I66" s="9"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="57" t="s">
+      <c r="A67" s="63"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="G67" s="66">
+      <c r="G67" s="71">
         <v>365</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="57" t="s">
+      <c r="A68" s="63"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="66">
+      <c r="G68" s="71">
         <v>366</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="54"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="57" t="s">
+      <c r="A69" s="63"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="G69" s="66">
+      <c r="G69" s="71">
         <v>367</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="54"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="57" t="s">
+      <c r="A70" s="63"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="G70" s="66">
+      <c r="G70" s="71">
         <v>368</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I70" s="9"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="54"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="57" t="s">
+      <c r="A71" s="63"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="G71" s="66">
+      <c r="G71" s="71">
         <v>369</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="57" t="s">
+      <c r="A72" s="63"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="G72" s="66">
+      <c r="G72" s="71">
         <v>370</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="57" t="s">
+      <c r="A73" s="63"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G73" s="66">
+      <c r="G73" s="71">
         <v>371</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="57" t="s">
+      <c r="A74" s="63"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G74" s="66">
+      <c r="G74" s="71">
         <v>372</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="57" t="s">
+      <c r="A75" s="63"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G75" s="66">
+      <c r="G75" s="71">
         <v>373</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="57" t="s">
+      <c r="A76" s="63"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G76" s="66">
+      <c r="G76" s="71">
         <v>374</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="36"/>
       <c r="E77" s="36"/>
-      <c r="F77" s="57" t="s">
+      <c r="F77" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="G77" s="66">
+      <c r="G77" s="71">
         <v>375</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" s="38" t="s">
         <v>59</v>
       </c>
       <c r="I77" s="9"/>
@@ -2486,7 +2495,7 @@
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
-      <c r="G78" s="66">
+      <c r="G78" s="69">
         <v>376</v>
       </c>
       <c r="H78" s="23" t="s">
@@ -2503,7 +2512,7 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
-      <c r="G79" s="59"/>
+      <c r="G79" s="41"/>
       <c r="H79" s="24"/>
       <c r="I79" s="12"/>
     </row>
@@ -2516,7 +2525,7 @@
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
-      <c r="G80" s="60" t="s">
+      <c r="G80" s="42" t="s">
         <v>63</v>
       </c>
       <c r="H80" s="25" t="s">
@@ -2533,7 +2542,7 @@
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
-      <c r="G81" s="60"/>
+      <c r="G81" s="42"/>
       <c r="H81" s="25"/>
       <c r="I81" s="14"/>
     </row>
@@ -2546,86 +2555,86 @@
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
-      <c r="G82" s="60"/>
+      <c r="G82" s="42"/>
       <c r="H82" s="25"/>
       <c r="I82" s="14"/>
     </row>
     <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="44" t="s">
+      <c r="A83" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
-      <c r="G83" s="60"/>
+      <c r="G83" s="42"/>
       <c r="H83" s="25"/>
       <c r="I83" s="14"/>
     </row>
     <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="45"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
+      <c r="A84" s="57"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="67"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
-      <c r="G84" s="60"/>
+      <c r="G84" s="42"/>
       <c r="H84" s="25"/>
       <c r="I84" s="14"/>
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="45"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
+      <c r="A85" s="57"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
-      <c r="G85" s="60"/>
+      <c r="G85" s="42"/>
       <c r="H85" s="25"/>
       <c r="I85" s="14"/>
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="45"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="67"/>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
-      <c r="G86" s="60"/>
+      <c r="G86" s="42"/>
       <c r="H86" s="25"/>
       <c r="I86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
+      <c r="A87" s="57"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
-      <c r="G87" s="60"/>
+      <c r="G87" s="42"/>
       <c r="H87" s="25"/>
       <c r="I87" s="14"/>
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="67"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
-      <c r="G88" s="60"/>
+      <c r="G88" s="42"/>
       <c r="H88" s="25"/>
       <c r="I88" s="14"/>
     </row>
     <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="46"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
+      <c r="A89" s="58"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="68"/>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
-      <c r="G89" s="60"/>
+      <c r="G89" s="42"/>
       <c r="H89" s="25"/>
       <c r="I89" s="14"/>
     </row>
@@ -2638,7 +2647,7 @@
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="61"/>
+      <c r="G90" s="43"/>
       <c r="H90" s="20"/>
       <c r="I90" s="22"/>
     </row>
@@ -2651,7 +2660,7 @@
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
       <c r="F91" s="29"/>
-      <c r="G91" s="62"/>
+      <c r="G91" s="44"/>
       <c r="H91" s="30"/>
       <c r="I91" s="27"/>
     </row>
@@ -2664,7 +2673,7 @@
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
       <c r="F92" s="29"/>
-      <c r="G92" s="62"/>
+      <c r="G92" s="44"/>
       <c r="H92" s="30"/>
       <c r="I92" s="27"/>
     </row>
@@ -2677,7 +2686,7 @@
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
       <c r="F93" s="27"/>
-      <c r="G93" s="62"/>
+      <c r="G93" s="44"/>
       <c r="H93" s="30"/>
       <c r="I93" s="27"/>
     </row>
@@ -2688,7 +2697,7 @@
       <c r="D94" s="26"/>
       <c r="E94" s="26"/>
       <c r="F94" s="32"/>
-      <c r="G94" s="63"/>
+      <c r="G94" s="45"/>
       <c r="H94" s="33"/>
       <c r="I94" s="26"/>
     </row>
@@ -2699,7 +2708,7 @@
       <c r="D95" s="26"/>
       <c r="E95" s="26"/>
       <c r="F95" s="32"/>
-      <c r="G95" s="63"/>
+      <c r="G95" s="45"/>
       <c r="H95" s="33"/>
       <c r="I95" s="26"/>
     </row>
@@ -2710,7 +2719,7 @@
       <c r="D96" s="26"/>
       <c r="E96" s="26"/>
       <c r="F96" s="32"/>
-      <c r="G96" s="63"/>
+      <c r="G96" s="45"/>
       <c r="H96" s="33"/>
       <c r="I96" s="26"/>
     </row>
@@ -2721,37 +2730,26 @@
       <c r="D97" s="26"/>
       <c r="E97" s="26"/>
       <c r="F97" s="32"/>
-      <c r="G97" s="63"/>
+      <c r="G97" s="45"/>
       <c r="H97" s="33"/>
       <c r="I97" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
     <mergeCell ref="A83:A89"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="A2:A39"/>
@@ -2768,20 +2766,31 @@
     <mergeCell ref="D73:D76"/>
     <mergeCell ref="D28:D34"/>
     <mergeCell ref="D59:D65"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubnetPlanning.xlsx
+++ b/SubnetPlanning.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGit\Github_projects\config gen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Nextcloud\Root\Python Programs\GitRepo\configuration_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD8B083-1564-4B75-A1B2-505EA2BA6961}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Subnet Planner" sheetId="4" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="68">
   <si>
     <t>Voice</t>
   </si>
@@ -211,19 +210,31 @@
     <t>172.16.2.0 /24</t>
   </si>
   <si>
-    <t>172.16.3.0 /24</t>
-  </si>
-  <si>
     <t>302</t>
   </si>
   <si>
-    <t>110</t>
+    <t>172.16.102.0/24</t>
+  </si>
+  <si>
+    <t>172.16.101.0/24</t>
+  </si>
+  <si>
+    <t>172.16.100.0/24</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -571,73 +582,73 @@
     <xf numFmtId="1" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -682,7 +693,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://www.davidc.net/sites/default/subnets/img/23.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +745,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://www.davidc.net/sites/default/subnets/img/22.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -786,7 +797,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://www.davidc.net/sites/default/subnets/img/20.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -838,7 +849,7 @@
         <xdr:cNvPr id="1028" name="Picture 4" descr="http://www.davidc.net/sites/default/subnets/img/19.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1137,14 +1148,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19:E20"/>
+      <selection pane="bottomRight" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1191,13 +1202,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="52"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="62"/>
       <c r="F2" s="39" t="s">
         <v>21</v>
       </c>
@@ -1210,11 +1221,11 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="51"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="39" t="s">
         <v>22</v>
       </c>
@@ -1227,16 +1238,16 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="52"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="39" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>59</v>
@@ -1244,11 +1255,11 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="51"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="39" t="s">
         <v>24</v>
       </c>
@@ -1261,11 +1272,11 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="52"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="39" t="s">
         <v>25</v>
       </c>
@@ -1278,11 +1289,11 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="51"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="39" t="s">
         <v>26</v>
       </c>
@@ -1295,11 +1306,11 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="39" t="s">
         <v>27</v>
       </c>
@@ -1312,11 +1323,11 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="39" t="s">
         <v>28</v>
       </c>
@@ -1329,11 +1340,11 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="52"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="39" t="s">
         <v>29</v>
       </c>
@@ -1346,11 +1357,11 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="51"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="39" t="s">
         <v>30</v>
       </c>
@@ -1363,11 +1374,11 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="39" t="s">
         <v>31</v>
       </c>
@@ -1380,11 +1391,11 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="51"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="64"/>
       <c r="F13" s="39" t="s">
         <v>32</v>
       </c>
@@ -1397,11 +1408,11 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="39" t="s">
         <v>33</v>
       </c>
@@ -1414,11 +1425,11 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="39" t="s">
         <v>34</v>
       </c>
@@ -1431,11 +1442,11 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="39" t="s">
         <v>35</v>
       </c>
@@ -1448,11 +1459,11 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="52"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="39" t="s">
         <v>36</v>
       </c>
@@ -1465,11 +1476,11 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="51"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="64"/>
       <c r="F18" s="39" t="s">
         <v>37</v>
       </c>
@@ -1482,11 +1493,11 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="63"/>
       <c r="F19" s="39" t="s">
         <v>38</v>
       </c>
@@ -1499,11 +1510,11 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="51"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="39" t="s">
         <v>39</v>
       </c>
@@ -1516,11 +1527,11 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
       <c r="F21" s="39" t="s">
         <v>40</v>
       </c>
@@ -1533,11 +1544,11 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="39" t="s">
         <v>41</v>
       </c>
@@ -1550,11 +1561,11 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="39" t="s">
         <v>42</v>
       </c>
@@ -1567,11 +1578,11 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="52"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="39" t="s">
         <v>43</v>
       </c>
@@ -1584,11 +1595,11 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="51"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="64"/>
       <c r="F25" s="39" t="s">
         <v>44</v>
       </c>
@@ -1601,11 +1612,11 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="39" t="s">
         <v>45</v>
       </c>
@@ -1618,11 +1629,11 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="51"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="39" t="s">
         <v>46</v>
       </c>
@@ -1635,11 +1646,11 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="52"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="39" t="s">
         <v>47</v>
       </c>
@@ -1652,11 +1663,11 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="51"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="64"/>
       <c r="F29" s="39" t="s">
         <v>48</v>
       </c>
@@ -1669,11 +1680,11 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="52"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="39" t="s">
         <v>49</v>
       </c>
@@ -1686,11 +1697,11 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="51"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="64"/>
       <c r="F31" s="39" t="s">
         <v>50</v>
       </c>
@@ -1703,11 +1714,11 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="39" t="s">
         <v>51</v>
       </c>
@@ -1720,11 +1731,11 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="39" t="s">
         <v>52</v>
       </c>
@@ -1737,11 +1748,11 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="51"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="64"/>
       <c r="F34" s="39" t="s">
         <v>53</v>
       </c>
@@ -1754,11 +1765,11 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
       <c r="F35" s="39" t="s">
         <v>54</v>
       </c>
@@ -1771,11 +1782,11 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
       <c r="F36" s="39" t="s">
         <v>55</v>
       </c>
@@ -1788,11 +1799,11 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="52"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="62"/>
       <c r="F37" s="39" t="s">
         <v>56</v>
       </c>
@@ -1805,11 +1816,11 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
       <c r="F38" s="39" t="s">
         <v>57</v>
       </c>
@@ -1822,9 +1833,9 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="61"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="34"/>
       <c r="E39" s="35"/>
       <c r="F39" s="39" t="s">
@@ -1839,17 +1850,17 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="70" t="s">
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G40" s="71">
+      <c r="G40" s="51">
         <v>338</v>
       </c>
       <c r="H40" s="38" t="s">
@@ -1858,15 +1869,15 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="70" t="s">
+      <c r="A41" s="69"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="71">
+      <c r="G41" s="51">
         <v>339</v>
       </c>
       <c r="H41" s="38" t="s">
@@ -1875,15 +1886,15 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="70" t="s">
+      <c r="A42" s="69"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="71">
+      <c r="G42" s="51">
         <v>340</v>
       </c>
       <c r="H42" s="38" t="s">
@@ -1892,15 +1903,15 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="70" t="s">
+      <c r="A43" s="69"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="71">
+      <c r="G43" s="51">
         <v>341</v>
       </c>
       <c r="H43" s="38" t="s">
@@ -1909,15 +1920,15 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="70" t="s">
+      <c r="A44" s="69"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="71">
+      <c r="G44" s="51">
         <v>342</v>
       </c>
       <c r="H44" s="38" t="s">
@@ -1926,15 +1937,15 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="70" t="s">
+      <c r="A45" s="69"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="71">
+      <c r="G45" s="51">
         <v>343</v>
       </c>
       <c r="H45" s="38" t="s">
@@ -1943,15 +1954,15 @@
       <c r="I45" s="36"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="70" t="s">
+      <c r="A46" s="69"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="71">
+      <c r="G46" s="51">
         <v>344</v>
       </c>
       <c r="H46" s="38" t="s">
@@ -1960,15 +1971,15 @@
       <c r="I46" s="36"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="70" t="s">
+      <c r="A47" s="69"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G47" s="71">
+      <c r="G47" s="51">
         <v>345</v>
       </c>
       <c r="H47" s="38" t="s">
@@ -1977,15 +1988,15 @@
       <c r="I47" s="9"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="70" t="s">
+      <c r="A48" s="69"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="71">
+      <c r="G48" s="51">
         <v>346</v>
       </c>
       <c r="H48" s="38" t="s">
@@ -1994,15 +2005,15 @@
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="70" t="s">
+      <c r="A49" s="69"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="71">
+      <c r="G49" s="51">
         <v>347</v>
       </c>
       <c r="H49" s="38" t="s">
@@ -2011,15 +2022,15 @@
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="63"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="70" t="s">
+      <c r="A50" s="69"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="71">
+      <c r="G50" s="51">
         <v>348</v>
       </c>
       <c r="H50" s="38" t="s">
@@ -2028,15 +2039,15 @@
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="63"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="70" t="s">
+      <c r="A51" s="69"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="71">
+      <c r="G51" s="51">
         <v>349</v>
       </c>
       <c r="H51" s="38" t="s">
@@ -2045,15 +2056,15 @@
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="63"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="70" t="s">
+      <c r="A52" s="69"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G52" s="71">
+      <c r="G52" s="51">
         <v>350</v>
       </c>
       <c r="H52" s="38" t="s">
@@ -2062,15 +2073,15 @@
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="70" t="s">
+      <c r="A53" s="69"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="71">
+      <c r="G53" s="51">
         <v>351</v>
       </c>
       <c r="H53" s="38" t="s">
@@ -2079,15 +2090,15 @@
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="70" t="s">
+      <c r="A54" s="69"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G54" s="71">
+      <c r="G54" s="51">
         <v>352</v>
       </c>
       <c r="H54" s="38" t="s">
@@ -2096,15 +2107,15 @@
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="70" t="s">
+      <c r="A55" s="69"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="G55" s="71">
+      <c r="G55" s="51">
         <v>353</v>
       </c>
       <c r="H55" s="38" t="s">
@@ -2113,15 +2124,15 @@
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="70" t="s">
+      <c r="A56" s="69"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G56" s="71">
+      <c r="G56" s="51">
         <v>354</v>
       </c>
       <c r="H56" s="38" t="s">
@@ -2130,15 +2141,15 @@
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="70" t="s">
+      <c r="A57" s="69"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="G57" s="71">
+      <c r="G57" s="51">
         <v>355</v>
       </c>
       <c r="H57" s="38" t="s">
@@ -2147,15 +2158,15 @@
       <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="70" t="s">
+      <c r="A58" s="69"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G58" s="71">
+      <c r="G58" s="51">
         <v>356</v>
       </c>
       <c r="H58" s="38" t="s">
@@ -2164,15 +2175,15 @@
       <c r="I58" s="9"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="63"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="70" t="s">
+      <c r="A59" s="69"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="G59" s="71">
+      <c r="G59" s="51">
         <v>357</v>
       </c>
       <c r="H59" s="38" t="s">
@@ -2181,15 +2192,15 @@
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="63"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="70" t="s">
+      <c r="A60" s="69"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G60" s="71">
+      <c r="G60" s="51">
         <v>358</v>
       </c>
       <c r="H60" s="38" t="s">
@@ -2198,15 +2209,15 @@
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="63"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="70" t="s">
+      <c r="A61" s="69"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="71">
+      <c r="G61" s="51">
         <v>359</v>
       </c>
       <c r="H61" s="38" t="s">
@@ -2215,15 +2226,15 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="63"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="70" t="s">
+      <c r="A62" s="69"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="G62" s="71">
+      <c r="G62" s="51">
         <v>360</v>
       </c>
       <c r="H62" s="38" t="s">
@@ -2232,15 +2243,15 @@
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="70" t="s">
+      <c r="A63" s="69"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="71">
+      <c r="G63" s="51">
         <v>361</v>
       </c>
       <c r="H63" s="38" t="s">
@@ -2249,15 +2260,15 @@
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="70" t="s">
+      <c r="A64" s="69"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G64" s="71">
+      <c r="G64" s="51">
         <v>362</v>
       </c>
       <c r="H64" s="38" t="s">
@@ -2266,15 +2277,15 @@
       <c r="I64" s="9"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="70" t="s">
+      <c r="A65" s="69"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="G65" s="71">
+      <c r="G65" s="51">
         <v>363</v>
       </c>
       <c r="H65" s="38" t="s">
@@ -2283,15 +2294,15 @@
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="70" t="s">
+      <c r="A66" s="69"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="71">
+      <c r="G66" s="51">
         <v>364</v>
       </c>
       <c r="H66" s="38" t="s">
@@ -2300,15 +2311,15 @@
       <c r="I66" s="9"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="63"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="70" t="s">
+      <c r="A67" s="69"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="G67" s="71">
+      <c r="G67" s="51">
         <v>365</v>
       </c>
       <c r="H67" s="38" t="s">
@@ -2317,15 +2328,15 @@
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="63"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="70" t="s">
+      <c r="A68" s="69"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="71">
+      <c r="G68" s="51">
         <v>366</v>
       </c>
       <c r="H68" s="38" t="s">
@@ -2334,15 +2345,15 @@
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="63"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="70" t="s">
+      <c r="A69" s="69"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="G69" s="71">
+      <c r="G69" s="51">
         <v>367</v>
       </c>
       <c r="H69" s="38" t="s">
@@ -2351,15 +2362,15 @@
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="70" t="s">
+      <c r="A70" s="69"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="G70" s="71">
+      <c r="G70" s="51">
         <v>368</v>
       </c>
       <c r="H70" s="38" t="s">
@@ -2368,15 +2379,15 @@
       <c r="I70" s="9"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="63"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="70" t="s">
+      <c r="A71" s="69"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G71" s="71">
+      <c r="G71" s="51">
         <v>369</v>
       </c>
       <c r="H71" s="38" t="s">
@@ -2385,15 +2396,15 @@
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="70" t="s">
+      <c r="A72" s="69"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="G72" s="71">
+      <c r="G72" s="51">
         <v>370</v>
       </c>
       <c r="H72" s="38" t="s">
@@ -2402,15 +2413,15 @@
       <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="63"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="70" t="s">
+      <c r="A73" s="69"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="G73" s="71">
+      <c r="G73" s="51">
         <v>371</v>
       </c>
       <c r="H73" s="38" t="s">
@@ -2419,15 +2430,15 @@
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="63"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="70" t="s">
+      <c r="A74" s="69"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G74" s="71">
+      <c r="G74" s="51">
         <v>372</v>
       </c>
       <c r="H74" s="38" t="s">
@@ -2436,15 +2447,15 @@
       <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="63"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="70" t="s">
+      <c r="A75" s="69"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="G75" s="71">
+      <c r="G75" s="51">
         <v>373</v>
       </c>
       <c r="H75" s="38" t="s">
@@ -2453,15 +2464,15 @@
       <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="70" t="s">
+      <c r="A76" s="69"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="G76" s="71">
+      <c r="G76" s="51">
         <v>374</v>
       </c>
       <c r="H76" s="38" t="s">
@@ -2470,15 +2481,15 @@
       <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="64"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="55"/>
+      <c r="A77" s="70"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="36"/>
       <c r="E77" s="36"/>
-      <c r="F77" s="70" t="s">
+      <c r="F77" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="G77" s="71">
+      <c r="G77" s="51">
         <v>375</v>
       </c>
       <c r="H77" s="38" t="s">
@@ -2495,7 +2506,7 @@
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
-      <c r="G78" s="69">
+      <c r="G78" s="49">
         <v>376</v>
       </c>
       <c r="H78" s="23" t="s">
@@ -2526,10 +2537,10 @@
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I80" s="14"/>
     </row>
@@ -2542,8 +2553,12 @@
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="25"/>
+      <c r="G81" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H81" s="25" t="s">
+        <v>63</v>
+      </c>
       <c r="I81" s="14"/>
     </row>
     <row r="82" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -2555,16 +2570,20 @@
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="25"/>
+      <c r="G82" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>62</v>
+      </c>
       <c r="I82" s="14"/>
     </row>
     <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="56" t="s">
+      <c r="A83" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="66"/>
-      <c r="C83" s="66"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
@@ -2573,9 +2592,9 @@
       <c r="I83" s="14"/>
     </row>
     <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="67"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
@@ -2584,9 +2603,9 @@
       <c r="I84" s="14"/>
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
+      <c r="A85" s="60"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
@@ -2595,9 +2614,9 @@
       <c r="I85" s="14"/>
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
-      <c r="B86" s="67"/>
-      <c r="C86" s="67"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
@@ -2606,9 +2625,9 @@
       <c r="I86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
-      <c r="B87" s="67"/>
-      <c r="C87" s="67"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
@@ -2617,9 +2636,9 @@
       <c r="I87" s="14"/>
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="57"/>
-      <c r="B88" s="67"/>
-      <c r="C88" s="67"/>
+      <c r="A88" s="60"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
@@ -2628,9 +2647,9 @@
       <c r="I88" s="14"/>
     </row>
     <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="58"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
@@ -2736,20 +2755,31 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="A83:A89"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="A2:A39"/>
@@ -2766,31 +2796,20 @@
     <mergeCell ref="D73:D76"/>
     <mergeCell ref="D28:D34"/>
     <mergeCell ref="D59:D65"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C83:C89"/>
+    <mergeCell ref="B83:B89"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubnetPlanning.xlsx
+++ b/SubnetPlanning.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Subnet Planner" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Subnet Planner'!$A$1:$I$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Subnet Planner'!$A$1:$I$98</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
   <si>
     <t>Voice</t>
   </si>
@@ -207,9 +207,6 @@
     <t>172.16.1.0 /24</t>
   </si>
   <si>
-    <t>172.16.2.0 /24</t>
-  </si>
-  <si>
     <t>302</t>
   </si>
   <si>
@@ -229,6 +226,21 @@
   </si>
   <si>
     <t>102</t>
+  </si>
+  <si>
+    <t>Switch-se1</t>
+  </si>
+  <si>
+    <t>Wireless</t>
+  </si>
+  <si>
+    <t>172.16.3.0 /24</t>
+  </si>
+  <si>
+    <t>172.16.2.0/24</t>
+  </si>
+  <si>
+    <t>Switch-wl1</t>
   </si>
 </sst>
 </file>
@@ -309,7 +321,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +379,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -591,6 +609,57 @@
     <xf numFmtId="1" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -600,56 +669,29 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,13 +721,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -693,7 +735,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://www.davidc.net/sites/default/subnets/img/23.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -731,13 +773,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -745,7 +787,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://www.davidc.net/sites/default/subnets/img/22.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -783,13 +825,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -797,7 +839,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://www.davidc.net/sites/default/subnets/img/20.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -835,13 +877,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -849,7 +891,7 @@
         <xdr:cNvPr id="1028" name="Picture 4" descr="http://www.davidc.net/sites/default/subnets/img/19.gif">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1149,13 +1191,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G83" sqref="G83"/>
+      <selection pane="bottomRight" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1202,13 +1244,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="39" t="s">
         <v>21</v>
       </c>
@@ -1221,11 +1263,11 @@
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="39" t="s">
         <v>22</v>
       </c>
@@ -1238,16 +1280,16 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="62"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="39" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>59</v>
@@ -1255,11 +1297,11 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="64"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="39" t="s">
         <v>24</v>
       </c>
@@ -1272,11 +1314,11 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="62"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="39" t="s">
         <v>25</v>
       </c>
@@ -1289,11 +1331,11 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="64"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="39" t="s">
         <v>26</v>
       </c>
@@ -1306,11 +1348,11 @@
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="39" t="s">
         <v>27</v>
       </c>
@@ -1323,11 +1365,11 @@
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="39" t="s">
         <v>28</v>
       </c>
@@ -1340,11 +1382,11 @@
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="62"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="39" t="s">
         <v>29</v>
       </c>
@@ -1357,11 +1399,11 @@
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="64"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="39" t="s">
         <v>30</v>
       </c>
@@ -1374,11 +1416,11 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="63"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="39" t="s">
         <v>31</v>
       </c>
@@ -1391,11 +1433,11 @@
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="64"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="39" t="s">
         <v>32</v>
       </c>
@@ -1408,11 +1450,11 @@
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="39" t="s">
         <v>33</v>
       </c>
@@ -1425,11 +1467,11 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="39" t="s">
         <v>34</v>
       </c>
@@ -1442,11 +1484,11 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="39" t="s">
         <v>35</v>
       </c>
@@ -1459,11 +1501,11 @@
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="62"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="39" t="s">
         <v>36</v>
       </c>
@@ -1476,11 +1518,11 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="64"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="39" t="s">
         <v>37</v>
       </c>
@@ -1493,11 +1535,11 @@
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="63"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="39" t="s">
         <v>38</v>
       </c>
@@ -1510,11 +1552,11 @@
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="64"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="39" t="s">
         <v>39</v>
       </c>
@@ -1527,11 +1569,11 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
       <c r="F21" s="39" t="s">
         <v>40</v>
       </c>
@@ -1544,11 +1586,11 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="39" t="s">
         <v>41</v>
       </c>
@@ -1561,11 +1603,11 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="39" t="s">
         <v>42</v>
       </c>
@@ -1578,11 +1620,11 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="62"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="39" t="s">
         <v>43</v>
       </c>
@@ -1595,11 +1637,11 @@
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="64"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="39" t="s">
         <v>44</v>
       </c>
@@ -1612,11 +1654,11 @@
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="63"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="39" t="s">
         <v>45</v>
       </c>
@@ -1629,11 +1671,11 @@
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="64"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="39" t="s">
         <v>46</v>
       </c>
@@ -1646,11 +1688,11 @@
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="62"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="39" t="s">
         <v>47</v>
       </c>
@@ -1663,11 +1705,11 @@
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="64"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="54"/>
       <c r="F29" s="39" t="s">
         <v>48</v>
       </c>
@@ -1680,11 +1722,11 @@
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="62"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="55"/>
       <c r="F30" s="39" t="s">
         <v>49</v>
       </c>
@@ -1697,11 +1739,11 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="64"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="39" t="s">
         <v>50</v>
       </c>
@@ -1714,11 +1756,11 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="63"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="39" t="s">
         <v>51</v>
       </c>
@@ -1731,11 +1773,11 @@
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="63"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="39" t="s">
         <v>52</v>
       </c>
@@ -1748,11 +1790,11 @@
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="64"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="54"/>
       <c r="F34" s="39" t="s">
         <v>53</v>
       </c>
@@ -1765,11 +1807,11 @@
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="39" t="s">
         <v>54</v>
       </c>
@@ -1782,11 +1824,11 @@
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="64"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="39" t="s">
         <v>55</v>
       </c>
@@ -1799,11 +1841,11 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="62"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="39" t="s">
         <v>56</v>
       </c>
@@ -1816,11 +1858,11 @@
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
       <c r="F38" s="39" t="s">
         <v>57</v>
       </c>
@@ -1833,9 +1875,9 @@
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="34"/>
       <c r="E39" s="35"/>
       <c r="F39" s="39" t="s">
@@ -1850,13 +1892,13 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="56"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="57"/>
       <c r="F40" s="50" t="s">
         <v>21</v>
       </c>
@@ -1869,11 +1911,11 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="57"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="58"/>
       <c r="F41" s="50" t="s">
         <v>22</v>
       </c>
@@ -1886,11 +1928,11 @@
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="56"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="57"/>
       <c r="F42" s="50" t="s">
         <v>23</v>
       </c>
@@ -1903,11 +1945,11 @@
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="57"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="58"/>
       <c r="F43" s="50" t="s">
         <v>24</v>
       </c>
@@ -1920,11 +1962,11 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="56"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="57"/>
       <c r="F44" s="50" t="s">
         <v>25</v>
       </c>
@@ -1937,11 +1979,11 @@
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="69"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="57"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="50" t="s">
         <v>26</v>
       </c>
@@ -1954,11 +1996,11 @@
       <c r="I45" s="36"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="69"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
       <c r="F46" s="50" t="s">
         <v>27</v>
       </c>
@@ -1971,11 +2013,11 @@
       <c r="I46" s="36"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
       <c r="F47" s="50" t="s">
         <v>28</v>
       </c>
@@ -1988,11 +2030,11 @@
       <c r="I47" s="9"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="56"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="57"/>
       <c r="F48" s="50" t="s">
         <v>29</v>
       </c>
@@ -2005,11 +2047,11 @@
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="69"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="57"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="50" t="s">
         <v>30</v>
       </c>
@@ -2022,11 +2064,11 @@
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="56"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57"/>
       <c r="F50" s="50" t="s">
         <v>31</v>
       </c>
@@ -2039,11 +2081,11 @@
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="57"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="58"/>
       <c r="F51" s="50" t="s">
         <v>32</v>
       </c>
@@ -2056,11 +2098,11 @@
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="69"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
       <c r="F52" s="50" t="s">
         <v>33</v>
       </c>
@@ -2073,11 +2115,11 @@
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="69"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
       <c r="F53" s="50" t="s">
         <v>34</v>
       </c>
@@ -2090,11 +2132,11 @@
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="69"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
       <c r="F54" s="50" t="s">
         <v>35</v>
       </c>
@@ -2107,11 +2149,11 @@
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="69"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="56"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="57"/>
       <c r="F55" s="50" t="s">
         <v>36</v>
       </c>
@@ -2124,11 +2166,11 @@
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="57"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="58"/>
       <c r="F56" s="50" t="s">
         <v>37</v>
       </c>
@@ -2141,11 +2183,11 @@
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="69"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="56"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="57"/>
       <c r="F57" s="50" t="s">
         <v>38</v>
       </c>
@@ -2158,11 +2200,11 @@
       <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="57"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="58"/>
       <c r="F58" s="50" t="s">
         <v>39</v>
       </c>
@@ -2175,11 +2217,11 @@
       <c r="I58" s="9"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="69"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
       <c r="F59" s="50" t="s">
         <v>40</v>
       </c>
@@ -2192,11 +2234,11 @@
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="69"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
       <c r="F60" s="50" t="s">
         <v>41</v>
       </c>
@@ -2209,11 +2251,11 @@
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="69"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
       <c r="F61" s="50" t="s">
         <v>42</v>
       </c>
@@ -2226,11 +2268,11 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="69"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="56"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="57"/>
       <c r="F62" s="50" t="s">
         <v>43</v>
       </c>
@@ -2243,11 +2285,11 @@
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="69"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="57"/>
+      <c r="A63" s="66"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="58"/>
       <c r="F63" s="50" t="s">
         <v>44</v>
       </c>
@@ -2260,11 +2302,11 @@
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="56"/>
+      <c r="A64" s="66"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="57"/>
       <c r="F64" s="50" t="s">
         <v>45</v>
       </c>
@@ -2277,11 +2319,11 @@
       <c r="I64" s="9"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="69"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="57"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="58"/>
       <c r="F65" s="50" t="s">
         <v>46</v>
       </c>
@@ -2294,11 +2336,11 @@
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="56"/>
+      <c r="A66" s="66"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="57"/>
       <c r="F66" s="50" t="s">
         <v>47</v>
       </c>
@@ -2311,11 +2353,11 @@
       <c r="I66" s="9"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="69"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="57"/>
+      <c r="A67" s="66"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="58"/>
       <c r="F67" s="50" t="s">
         <v>48</v>
       </c>
@@ -2328,11 +2370,11 @@
       <c r="I67" s="9"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="69"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="56"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="57"/>
       <c r="F68" s="50" t="s">
         <v>49</v>
       </c>
@@ -2345,11 +2387,11 @@
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="69"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="57"/>
+      <c r="A69" s="66"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="58"/>
       <c r="F69" s="50" t="s">
         <v>50</v>
       </c>
@@ -2362,11 +2404,11 @@
       <c r="I69" s="9"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="69"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="56"/>
+      <c r="A70" s="66"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="57"/>
       <c r="F70" s="50" t="s">
         <v>51</v>
       </c>
@@ -2379,11 +2421,11 @@
       <c r="I70" s="9"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="69"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="58"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="68"/>
       <c r="F71" s="50" t="s">
         <v>52</v>
       </c>
@@ -2396,11 +2438,11 @@
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="69"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="57"/>
+      <c r="A72" s="66"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="58"/>
       <c r="F72" s="50" t="s">
         <v>53</v>
       </c>
@@ -2413,11 +2455,11 @@
       <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="69"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
+      <c r="A73" s="66"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
       <c r="F73" s="50" t="s">
         <v>54</v>
       </c>
@@ -2430,11 +2472,11 @@
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="69"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="57"/>
+      <c r="A74" s="66"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="58"/>
       <c r="F74" s="50" t="s">
         <v>55</v>
       </c>
@@ -2447,11 +2489,11 @@
       <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="69"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="56"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="57"/>
       <c r="F75" s="50" t="s">
         <v>56</v>
       </c>
@@ -2464,11 +2506,11 @@
       <c r="I75" s="9"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="69"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="57"/>
+      <c r="A76" s="66"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
       <c r="F76" s="50" t="s">
         <v>57</v>
       </c>
@@ -2481,9 +2523,9 @@
       <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
       <c r="D77" s="36"/>
       <c r="E77" s="36"/>
       <c r="F77" s="50" t="s">
@@ -2498,55 +2540,59 @@
       <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="74"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="G78" s="77">
+        <v>376</v>
+      </c>
+      <c r="H78" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78" s="79"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="49">
-        <v>376</v>
-      </c>
-      <c r="H78" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I78" s="13"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="G79" s="49">
+        <v>377</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="I79" s="13"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="12"/>
-    </row>
-    <row r="80" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="H80" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="I80" s="14"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -2554,7 +2600,7 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H81" s="25" t="s">
         <v>63</v>
@@ -2563,7 +2609,7 @@
     </row>
     <row r="82" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -2571,30 +2617,36 @@
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H82" s="25" t="s">
         <v>62</v>
       </c>
       <c r="I82" s="14"/>
     </row>
-    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
+    <row r="83" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="25"/>
+      <c r="G83" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H83" s="25" t="s">
+        <v>61</v>
+      </c>
       <c r="I83" s="14"/>
     </row>
     <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="60"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
+      <c r="A84" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
@@ -2604,8 +2656,8 @@
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="60"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
@@ -2615,8 +2667,8 @@
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="60"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
@@ -2626,8 +2678,8 @@
     </row>
     <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="60"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
@@ -2637,8 +2689,8 @@
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="60"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="53"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="70"/>
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
@@ -2647,9 +2699,9 @@
       <c r="I88" s="14"/>
     </row>
     <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="61"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="54"/>
+      <c r="A89" s="60"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="70"/>
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
@@ -2657,35 +2709,33 @@
       <c r="H89" s="25"/>
       <c r="I89" s="14"/>
     </row>
-    <row r="90" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="21" t="s">
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="61"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="14"/>
+    </row>
+    <row r="91" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="22"/>
-    </row>
-    <row r="91" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="28" t="s">
+      <c r="B91" s="7"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="22"/>
+    </row>
+    <row r="92" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="28" t="s">
         <v>18</v>
-      </c>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="27"/>
-    </row>
-    <row r="92" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="28" t="s">
-        <v>19</v>
       </c>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
@@ -2698,27 +2748,29 @@
     </row>
     <row r="93" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
+      <c r="F93" s="29"/>
       <c r="G93" s="44"/>
       <c r="H93" s="30"/>
       <c r="I93" s="27"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="26"/>
+    <row r="94" spans="1:9" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="27"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="31"/>
@@ -2753,34 +2805,34 @@
       <c r="H97" s="33"/>
       <c r="I97" s="26"/>
     </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="31"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="26"/>
+    </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="C84:C90"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="A84:A90"/>
     <mergeCell ref="D35:D38"/>
     <mergeCell ref="A2:A39"/>
     <mergeCell ref="A40:A77"/>
@@ -2796,20 +2848,31 @@
     <mergeCell ref="D73:D76"/>
     <mergeCell ref="D28:D34"/>
     <mergeCell ref="D59:D65"/>
-    <mergeCell ref="C83:C89"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
